--- a/autotest/elementdata/LoginPage.xlsx
+++ b/autotest/elementdata/LoginPage.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8535"/>
+    <workbookView windowHeight="8535" windowWidth="19770"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>controlCode</t>
   </si>
@@ -67,6 +67,9 @@
     <t>#password</t>
   </si>
   <si>
+    <t>insert</t>
+  </si>
+  <si>
     <t>codeInputBox</t>
   </si>
   <si>
@@ -83,6 +86,18 @@
   </si>
   <si>
     <t>body &gt; div.login_all &gt; div &gt; div &gt; a</t>
+  </si>
+  <si>
+    <t>Update success</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>插入失败！数据库可能已存在“passwordInputBox”主键！或者数据库失去连接！</t>
+  </si>
+  <si>
+    <t>插入失败！数据库可能已存在“loginButton”主键！或者数据库失去连接！</t>
   </si>
 </sst>
 </file>
@@ -90,22 +105,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -134,7 +142,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,93 +179,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,37 +279,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,133 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,17 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -537,6 +541,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,209 +572,209 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="10" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="23" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="23" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="24" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -770,10 +785,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -937,21 +952,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -968,7 +983,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1021,18 +1036,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1078,13 +1094,13 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1104,69 +1120,95 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>